--- a/client/simulations/tests/points_no_data.xlsx
+++ b/client/simulations/tests/points_no_data.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uczmh2\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="11700" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Input Values" sheetId="1" r:id="rId1"/>
@@ -12,13 +17,14 @@
     <sheet name="PKPD - APD90 vs. Timepoint" sheetId="3" r:id="rId3"/>
     <sheet name="Voltage Traces (concentration)" sheetId="4" r:id="rId4"/>
     <sheet name="Voltage Traces (Plot format)" sheetId="5" r:id="rId5"/>
+    <sheet name="ApPredict version information" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>Title</t>
   </si>
@@ -117,13 +123,106 @@
   </si>
   <si>
     <t>Time (ms)</t>
+  </si>
+  <si>
+    <t>ApPredict Version</t>
+  </si>
+  <si>
+    <t>37cc5a6</t>
+  </si>
+  <si>
+    <t>Chaste Version</t>
+  </si>
+  <si>
+    <t>2019.1.682dce0</t>
+  </si>
+  <si>
+    <t>Modified</t>
+  </si>
+  <si>
+    <t>Build options</t>
+  </si>
+  <si>
+    <t>GccOpt, shared libraries</t>
+  </si>
+  <si>
+    <t>OS info</t>
+  </si>
+  <si>
+    <t>Linux d09b088bdc9f 4.15.0-161-generic #169-Ubuntu SMP Fri Oct 15 13:41:54 UTC 2021 x86_64</t>
+  </si>
+  <si>
+    <t>Compiler</t>
+  </si>
+  <si>
+    <t>gcc, version b'9.3.0'</t>
+  </si>
+  <si>
+    <t>Compiler flags</t>
+  </si>
+  <si>
+    <t>-O3 -std=c++14</t>
+  </si>
+  <si>
+    <t>XSD</t>
+  </si>
+  <si>
+    <t>4.0.0</t>
+  </si>
+  <si>
+    <t>VTK</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>Xerces</t>
+  </si>
+  <si>
+    <t>3.2.0</t>
+  </si>
+  <si>
+    <t>SUNDIALS</t>
+  </si>
+  <si>
+    <t>2.5.0</t>
+  </si>
+  <si>
+    <t>HDF5</t>
+  </si>
+  <si>
+    <t>1.8.16</t>
+  </si>
+  <si>
+    <t>Boost</t>
+  </si>
+  <si>
+    <t>1.65.1</t>
+  </si>
+  <si>
+    <t>PETSc</t>
+  </si>
+  <si>
+    <t>3.12.4</t>
+  </si>
+  <si>
+    <t>Parmetis</t>
+  </si>
+  <si>
+    <t>4.0.3</t>
+  </si>
+  <si>
+    <t>Ap Predict arguments</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> --pacing-freq 1 --pacing-max-time 5 --plasma-conc-high 100 --plasma-conc-low 0 --plasma-conc-count 4 --plasma-conc-logscale true --model 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,6 +268,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -215,7 +322,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -247,9 +354,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -281,6 +389,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -456,14 +565,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -471,7 +580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -479,7 +588,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -487,7 +596,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -495,7 +604,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
@@ -509,7 +618,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
         <v>11</v>
       </c>
@@ -520,7 +629,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -543,60 +652,60 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B12">
-        <v>24.9197</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>24.919699999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>25.85</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>27.73</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15">
-        <v>35.8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>35.799999999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16">
-        <v>41.032</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>41.031999999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B17">
-        <v>42.949</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>42.948999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>56.2</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>67.31</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>72.27</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -610,14 +719,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -646,14 +755,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
@@ -667,28 +776,171 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/client/simulations/tests/points_no_data.xlsx
+++ b/client/simulations/tests/points_no_data.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uczmh2\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uczmh2\Desktop\ap-nimbus-client\client\simulations\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="11700" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="11700" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Input Values" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Title</t>
   </si>
@@ -123,99 +123,6 @@
   </si>
   <si>
     <t>Time (ms)</t>
-  </si>
-  <si>
-    <t>ApPredict Version</t>
-  </si>
-  <si>
-    <t>37cc5a6</t>
-  </si>
-  <si>
-    <t>Chaste Version</t>
-  </si>
-  <si>
-    <t>2019.1.682dce0</t>
-  </si>
-  <si>
-    <t>Modified</t>
-  </si>
-  <si>
-    <t>Build options</t>
-  </si>
-  <si>
-    <t>GccOpt, shared libraries</t>
-  </si>
-  <si>
-    <t>OS info</t>
-  </si>
-  <si>
-    <t>Linux d09b088bdc9f 4.15.0-161-generic #169-Ubuntu SMP Fri Oct 15 13:41:54 UTC 2021 x86_64</t>
-  </si>
-  <si>
-    <t>Compiler</t>
-  </si>
-  <si>
-    <t>gcc, version b'9.3.0'</t>
-  </si>
-  <si>
-    <t>Compiler flags</t>
-  </si>
-  <si>
-    <t>-O3 -std=c++14</t>
-  </si>
-  <si>
-    <t>XSD</t>
-  </si>
-  <si>
-    <t>4.0.0</t>
-  </si>
-  <si>
-    <t>VTK</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>Xerces</t>
-  </si>
-  <si>
-    <t>3.2.0</t>
-  </si>
-  <si>
-    <t>SUNDIALS</t>
-  </si>
-  <si>
-    <t>2.5.0</t>
-  </si>
-  <si>
-    <t>HDF5</t>
-  </si>
-  <si>
-    <t>1.8.16</t>
-  </si>
-  <si>
-    <t>Boost</t>
-  </si>
-  <si>
-    <t>1.65.1</t>
-  </si>
-  <si>
-    <t>PETSc</t>
-  </si>
-  <si>
-    <t>3.12.4</t>
-  </si>
-  <si>
-    <t>Parmetis</t>
-  </si>
-  <si>
-    <t>4.0.3</t>
-  </si>
-  <si>
-    <t>Ap Predict arguments</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> --pacing-freq 1 --pacing-max-time 5 --plasma-conc-high 100 --plasma-conc-low 0 --plasma-conc-count 4 --plasma-conc-logscale true --model 1</t>
   </si>
 </sst>
 </file>
@@ -807,143 +714,14 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B16"/>
+      <selection activeCell="A18" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>60</v>
-      </c>
-      <c r="B15" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>62</v>
-      </c>
-      <c r="B16" t="s">
-        <v>63</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/client/simulations/tests/points_no_data.xlsx
+++ b/client/simulations/tests/points_no_data.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uczmh2\Desktop\ap-nimbus-client\client\simulations\tests\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="11700" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Input Values" sheetId="1" r:id="rId1"/>
@@ -19,7 +14,7 @@
     <sheet name="Voltage Traces (Plot format)" sheetId="5" r:id="rId5"/>
     <sheet name="ApPredict version information" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -35,7 +30,7 @@
     <t>Created at</t>
   </si>
   <si>
-    <t>2022-03-09 18:15:59.313152</t>
+    <t>2022-12-12 18:30:07.895638</t>
   </si>
   <si>
     <t>Created by</t>
@@ -128,8 +123,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,14 +170,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -229,7 +216,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -261,10 +248,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -296,7 +282,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -472,14 +457,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -487,7 +472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -495,7 +480,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -503,7 +488,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -511,7 +496,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
@@ -525,7 +510,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="C8" s="1" t="s">
         <v>11</v>
       </c>
@@ -536,7 +521,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -559,60 +544,60 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B12">
-        <v>24.919699999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>24.9197</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="B13">
         <v>25.85</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="B14">
         <v>27.73</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="B15">
-        <v>35.799999999999997</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+        <v>35.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="B16">
-        <v>41.031999999999996</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>41.032</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="B17">
-        <v>42.948999999999998</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>42.949</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="B18">
         <v>56.2</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="B19">
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="B20">
         <v>67.31</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="B21">
         <v>72.27</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -626,14 +611,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -662,14 +647,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
@@ -683,26 +668,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
@@ -713,14 +698,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
